--- a/Doc/ExcelConfig/Datas/dota/PublicShopConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/PublicShopConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>##</t>
   </si>
@@ -79,13 +79,43 @@
     <t>GoldShop</t>
   </si>
   <si>
-    <t>item_building_hero_zuus</t>
-  </si>
-  <si>
-    <t>item_building_hero_lina</t>
+    <t>item_imba_flask</t>
+  </si>
+  <si>
+    <t>item_imba_enchanted_mango</t>
+  </si>
+  <si>
+    <t>item_imba_cheese</t>
+  </si>
+  <si>
+    <t>item_imba_aegis</t>
+  </si>
+  <si>
+    <t>item_shop_equiptreasure_c</t>
+  </si>
+  <si>
+    <t>item_shop_equiptreasure_b</t>
+  </si>
+  <si>
+    <t>item_shop_equiptreasure_a</t>
+  </si>
+  <si>
+    <t>item_shop_equiptreasure_s</t>
   </si>
   <si>
     <t>WoodShop</t>
+  </si>
+  <si>
+    <t>item_shop_gold_bag</t>
+  </si>
+  <si>
+    <t>item_shop_wood_bag</t>
+  </si>
+  <si>
+    <t>item_shop_soulcrystal_bag</t>
+  </si>
+  <si>
+    <t>item_shop_lottery_ticket</t>
   </si>
   <si>
     <t>RoundShop</t>
@@ -1060,10 +1090,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17:E35"/>
+      <selection activeCell="D13" sqref="D13:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -1071,7 +1101,7 @@
     <col min="1" max="1" width="15.0666666666667" customWidth="1"/>
     <col min="2" max="2" width="12.5333333333333" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.3" customWidth="1"/>
-    <col min="4" max="4" width="21.225" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23.2583333333333" style="3" customWidth="1"/>
     <col min="5" max="6" width="12.3833333333333" customWidth="1"/>
     <col min="7" max="7" width="14.2" customWidth="1"/>
     <col min="8" max="8" width="8.125" customWidth="1"/>
@@ -1200,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -1218,7 +1248,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1231,15 +1261,12 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="2:8">
-      <c r="B9" s="2" t="s">
-        <v>22</v>
-      </c>
+    <row r="9" spans="3:8">
       <c r="C9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -1254,10 +1281,10 @@
     </row>
     <row r="10" spans="3:8">
       <c r="C10" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -1272,10 +1299,10 @@
     </row>
     <row r="11" spans="3:8">
       <c r="C11" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1290,10 +1317,10 @@
     </row>
     <row r="12" spans="3:8">
       <c r="C12" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E12" s="1">
         <v>0</v>
@@ -1306,12 +1333,15 @@
       </c>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="3:8">
+    <row r="13" spans="2:8">
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -1326,10 +1356,10 @@
     </row>
     <row r="14" spans="3:8">
       <c r="C14" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1344,10 +1374,10 @@
     </row>
     <row r="15" spans="3:8">
       <c r="C15" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1">
         <v>0</v>
@@ -1362,10 +1392,10 @@
     </row>
     <row r="16" spans="3:8">
       <c r="C16" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1380,7 +1410,7 @@
     </row>
     <row r="17" spans="2:8">
       <c r="B17" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -1455,7 +1485,7 @@
     </row>
     <row r="21" spans="2:8">
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1591,125 +1621,6 @@
       </c>
       <c r="G28" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="3:7">
-      <c r="C29">
-        <v>9</v>
-      </c>
-      <c r="D29" s="3">
-        <v>10002</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:7">
-      <c r="C30">
-        <v>10</v>
-      </c>
-      <c r="D30" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7">
-      <c r="C31">
-        <v>11</v>
-      </c>
-      <c r="D31" s="6">
-        <v>10001</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7">
-      <c r="C32">
-        <v>12</v>
-      </c>
-      <c r="D32" s="3">
-        <v>10002</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7">
-      <c r="C33">
-        <v>13</v>
-      </c>
-      <c r="D33" s="3">
-        <v>10000</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7">
-      <c r="C34">
-        <v>14</v>
-      </c>
-      <c r="D34" s="6">
-        <v>10001</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7">
-      <c r="C35">
-        <v>15</v>
-      </c>
-      <c r="D35" s="3">
-        <v>10002</v>
-      </c>
-      <c r="E35" s="1">
-        <v>1</v>
-      </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
